--- a/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,18 @@
     <t>['24', '32', '41', '58', '65', '89']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['53', '90+6']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['29', '90+6']</t>
+  </si>
+  <si>
     <t>['9', '78']</t>
   </si>
   <si>
@@ -782,9 +794,6 @@
   </si>
   <si>
     <t>['52', '78']</t>
-  </si>
-  <si>
-    <t>['68']</t>
   </si>
   <si>
     <t>['17']</t>
@@ -944,9 +953,6 @@
   </si>
   <si>
     <t>['38']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['51', '55']</t>
@@ -1326,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1666,7 @@
         <v>1.82</v>
       </c>
       <c r="AT2">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1851,7 +1857,7 @@
         <v>2.18</v>
       </c>
       <c r="AT3">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1952,7 +1958,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2042,7 +2048,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2230,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT5">
         <v>0.55</v>
@@ -2334,7 +2340,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2421,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT6">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2525,7 +2531,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2907,7 +2913,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -3185,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3480,7 +3486,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3567,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT12">
         <v>1.55</v>
@@ -3671,7 +3677,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3761,7 +3767,7 @@
         <v>2.18</v>
       </c>
       <c r="AT13">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU13">
         <v>1.02</v>
@@ -4053,7 +4059,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4435,7 +4441,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4626,7 +4632,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4817,7 +4823,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5095,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT20">
         <v>0.55</v>
@@ -5199,7 +5205,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5477,10 +5483,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU22">
         <v>1.38</v>
@@ -5668,7 +5674,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT23">
         <v>2.18</v>
@@ -6053,7 +6059,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU25">
         <v>1.39</v>
@@ -6345,7 +6351,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6536,7 +6542,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6626,7 +6632,7 @@
         <v>1.82</v>
       </c>
       <c r="AT28">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.01</v>
@@ -6727,7 +6733,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7109,7 +7115,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7300,7 +7306,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7491,7 +7497,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7682,7 +7688,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7873,7 +7879,7 @@
         <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8064,7 +8070,7 @@
         <v>104</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8255,7 +8261,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8446,7 +8452,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -8724,10 +8730,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT39">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.53</v>
@@ -8828,7 +8834,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8915,7 +8921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT40">
         <v>2.18</v>
@@ -9019,7 +9025,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9109,7 +9115,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU41">
         <v>1.21</v>
@@ -9297,10 +9303,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT42">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.91</v>
@@ -9488,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT43">
         <v>1.27</v>
@@ -9592,7 +9598,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -9682,7 +9688,7 @@
         <v>1.25</v>
       </c>
       <c r="AT44">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9783,7 +9789,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9974,7 +9980,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10547,7 +10553,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -11120,7 +11126,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12162,7 +12168,7 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT57">
         <v>1.75</v>
@@ -12544,10 +12550,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT59">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU59">
         <v>1.51</v>
@@ -12738,7 +12744,7 @@
         <v>1.82</v>
       </c>
       <c r="AT60">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU60">
         <v>1.08</v>
@@ -12839,7 +12845,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12929,7 +12935,7 @@
         <v>1.18</v>
       </c>
       <c r="AT61">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU61">
         <v>1.77</v>
@@ -13030,7 +13036,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13117,7 +13123,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT62">
         <v>1.58</v>
@@ -13308,10 +13314,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT63">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU63">
         <v>1.01</v>
@@ -13412,7 +13418,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13499,10 +13505,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT64">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13794,7 +13800,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13985,7 +13991,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14075,7 +14081,7 @@
         <v>1.55</v>
       </c>
       <c r="AT67">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU67">
         <v>1.79</v>
@@ -14749,7 +14755,7 @@
         <v>84</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15409,10 +15415,10 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT74">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU74">
         <v>1.73</v>
@@ -15513,7 +15519,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15600,7 +15606,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT75">
         <v>1.27</v>
@@ -15791,7 +15797,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT76">
         <v>1.58</v>
@@ -15895,7 +15901,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16086,7 +16092,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16173,10 +16179,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT78">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU78">
         <v>1.09</v>
@@ -16277,7 +16283,7 @@
         <v>84</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16558,7 +16564,7 @@
         <v>1.18</v>
       </c>
       <c r="AT80">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.79</v>
@@ -16659,7 +16665,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16749,7 +16755,7 @@
         <v>0.73</v>
       </c>
       <c r="AT81">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU81">
         <v>1.52</v>
@@ -16850,7 +16856,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16937,7 +16943,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT82">
         <v>0.55</v>
@@ -17131,7 +17137,7 @@
         <v>1.36</v>
       </c>
       <c r="AT83">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU83">
         <v>1.32</v>
@@ -17423,7 +17429,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17805,7 +17811,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17895,7 +17901,7 @@
         <v>1.55</v>
       </c>
       <c r="AT87">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU87">
         <v>1.72</v>
@@ -18083,7 +18089,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT88">
         <v>1.73</v>
@@ -18187,7 +18193,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18378,7 +18384,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18569,7 +18575,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18847,10 +18853,10 @@
         <v>0.25</v>
       </c>
       <c r="AS92">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT92">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU92">
         <v>0.83</v>
@@ -18951,7 +18957,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19142,7 +19148,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19229,7 +19235,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT94">
         <v>1.75</v>
@@ -19333,7 +19339,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -19423,7 +19429,7 @@
         <v>1.27</v>
       </c>
       <c r="AT95">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU95">
         <v>1.39</v>
@@ -19524,7 +19530,7 @@
         <v>149</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19611,7 +19617,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT96">
         <v>1.27</v>
@@ -19715,7 +19721,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19906,7 +19912,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20184,7 +20190,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT99">
         <v>0.36</v>
@@ -20378,7 +20384,7 @@
         <v>0.73</v>
       </c>
       <c r="AT100">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU100">
         <v>1.55</v>
@@ -20566,7 +20572,7 @@
         <v>0.83</v>
       </c>
       <c r="AS101">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT101">
         <v>0.73</v>
@@ -20861,7 +20867,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20951,7 +20957,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU103">
         <v>1.49</v>
@@ -21052,7 +21058,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21243,7 +21249,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21333,7 +21339,7 @@
         <v>1.55</v>
       </c>
       <c r="AT105">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>1.75</v>
@@ -21816,7 +21822,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22007,7 +22013,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -22097,7 +22103,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU109">
         <v>1.59</v>
@@ -22198,7 +22204,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>14</v>
@@ -22285,7 +22291,7 @@
         <v>0.6</v>
       </c>
       <c r="AS110">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT110">
         <v>0.36</v>
@@ -22389,7 +22395,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22476,7 +22482,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT111">
         <v>1.82</v>
@@ -23049,7 +23055,7 @@
         <v>2</v>
       </c>
       <c r="AS114">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
         <v>1.75</v>
@@ -23153,7 +23159,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23243,7 +23249,7 @@
         <v>1.18</v>
       </c>
       <c r="AT115">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU115">
         <v>1.99</v>
@@ -23434,7 +23440,7 @@
         <v>1.36</v>
       </c>
       <c r="AT116">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU116">
         <v>1.39</v>
@@ -23535,7 +23541,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23726,7 +23732,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23813,7 +23819,7 @@
         <v>1.2</v>
       </c>
       <c r="AS118">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT118">
         <v>1.73</v>
@@ -23917,7 +23923,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24195,7 +24201,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT120">
         <v>0.55</v>
@@ -24389,7 +24395,7 @@
         <v>2.18</v>
       </c>
       <c r="AT121">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU121">
         <v>1.14</v>
@@ -24580,7 +24586,7 @@
         <v>1.55</v>
       </c>
       <c r="AT122">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU122">
         <v>1.7</v>
@@ -24872,7 +24878,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25063,7 +25069,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>13</v>
@@ -25254,7 +25260,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25344,7 +25350,7 @@
         <v>1.36</v>
       </c>
       <c r="AT126">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU126">
         <v>1.75</v>
@@ -25445,7 +25451,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25535,7 +25541,7 @@
         <v>2</v>
       </c>
       <c r="AT127">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU127">
         <v>1.87</v>
@@ -25914,7 +25920,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT129">
         <v>1.73</v>
@@ -26018,7 +26024,7 @@
         <v>178</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26105,7 +26111,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT130">
         <v>1.55</v>
@@ -26209,7 +26215,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26400,7 +26406,7 @@
         <v>180</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26591,7 +26597,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26678,7 +26684,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT133">
         <v>1.82</v>
@@ -26782,7 +26788,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26869,7 +26875,7 @@
         <v>0.29</v>
       </c>
       <c r="AS134">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT134">
         <v>0.55</v>
@@ -26973,7 +26979,7 @@
         <v>114</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27254,7 +27260,7 @@
         <v>1.27</v>
       </c>
       <c r="AT136">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU136">
         <v>1.44</v>
@@ -27546,7 +27552,7 @@
         <v>148</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27633,7 +27639,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT138">
         <v>1.55</v>
@@ -28018,7 +28024,7 @@
         <v>2.18</v>
       </c>
       <c r="AT140">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU140">
         <v>1.99</v>
@@ -28119,7 +28125,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28209,7 +28215,7 @@
         <v>2</v>
       </c>
       <c r="AT141">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU141">
         <v>1.84</v>
@@ -28397,7 +28403,7 @@
         <v>2.25</v>
       </c>
       <c r="AS142">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT142">
         <v>2.18</v>
@@ -28501,7 +28507,7 @@
         <v>124</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28591,7 +28597,7 @@
         <v>1.25</v>
       </c>
       <c r="AT143">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU143">
         <v>1.39</v>
@@ -28692,7 +28698,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q144">
         <v>19</v>
@@ -28973,7 +28979,7 @@
         <v>2.18</v>
       </c>
       <c r="AT145">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU145">
         <v>1.14</v>
@@ -29161,7 +29167,7 @@
         <v>0.88</v>
       </c>
       <c r="AS146">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT146">
         <v>0.73</v>
@@ -29265,7 +29271,7 @@
         <v>132</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>14</v>
@@ -29352,7 +29358,7 @@
         <v>0.38</v>
       </c>
       <c r="AS147">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT147">
         <v>0.55</v>
@@ -29456,7 +29462,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29543,7 +29549,7 @@
         <v>2</v>
       </c>
       <c r="AS148">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT148">
         <v>1.55</v>
@@ -29647,7 +29653,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29838,7 +29844,7 @@
         <v>190</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30220,7 +30226,7 @@
         <v>192</v>
       </c>
       <c r="P152" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30692,7 +30698,7 @@
         <v>1</v>
       </c>
       <c r="AT154">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU154">
         <v>1.42</v>
@@ -30984,7 +30990,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31175,7 +31181,7 @@
         <v>113</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31366,7 +31372,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31557,7 +31563,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31748,7 +31754,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31835,7 +31841,7 @@
         <v>1.25</v>
       </c>
       <c r="AS160">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT160">
         <v>1.55</v>
@@ -31939,7 +31945,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32029,7 +32035,7 @@
         <v>1.36</v>
       </c>
       <c r="AT161">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU161">
         <v>1.75</v>
@@ -32130,7 +32136,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -32321,7 +32327,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32408,7 +32414,7 @@
         <v>0.78</v>
       </c>
       <c r="AS163">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT163">
         <v>0.73</v>
@@ -32599,7 +32605,7 @@
         <v>0.67</v>
       </c>
       <c r="AS164">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT164">
         <v>0.55</v>
@@ -32790,7 +32796,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT165">
         <v>1</v>
@@ -33276,7 +33282,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33363,7 +33369,7 @@
         <v>2</v>
       </c>
       <c r="AS168">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT168">
         <v>2.18</v>
@@ -33554,10 +33560,10 @@
         <v>1.22</v>
       </c>
       <c r="AS169">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT169">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU169">
         <v>1.57</v>
@@ -33748,7 +33754,7 @@
         <v>1.82</v>
       </c>
       <c r="AT170">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU170">
         <v>1.5</v>
@@ -33939,7 +33945,7 @@
         <v>1.5</v>
       </c>
       <c r="AT171">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU171">
         <v>1.49</v>
@@ -34130,7 +34136,7 @@
         <v>1.25</v>
       </c>
       <c r="AT172">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU172">
         <v>1.4</v>
@@ -34231,7 +34237,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34422,7 +34428,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34703,7 +34709,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU175">
         <v>1.82</v>
@@ -34804,7 +34810,7 @@
         <v>207</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q176">
         <v>8</v>
@@ -34995,7 +35001,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>1</v>
@@ -35082,10 +35088,10 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT177">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU177">
         <v>1.87</v>
@@ -35186,7 +35192,7 @@
         <v>98</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35377,7 +35383,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35846,7 +35852,7 @@
         <v>1.11</v>
       </c>
       <c r="AS181">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -36037,7 +36043,7 @@
         <v>0.6</v>
       </c>
       <c r="AS182">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT182">
         <v>0.55</v>
@@ -36141,7 +36147,7 @@
         <v>211</v>
       </c>
       <c r="P183" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q183">
         <v>10</v>
@@ -36228,10 +36234,10 @@
         <v>1.22</v>
       </c>
       <c r="AS183">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT183">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU183">
         <v>1.86</v>
@@ -36422,7 +36428,7 @@
         <v>1.5</v>
       </c>
       <c r="AT184">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU184">
         <v>1.52</v>
@@ -36523,7 +36529,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36610,10 +36616,10 @@
         <v>1.5</v>
       </c>
       <c r="AS185">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT185">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU185">
         <v>1.86</v>
@@ -36714,7 +36720,7 @@
         <v>213</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36801,7 +36807,7 @@
         <v>1.9</v>
       </c>
       <c r="AS186">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT186">
         <v>1.58</v>
@@ -36995,7 +37001,7 @@
         <v>2.18</v>
       </c>
       <c r="AT187">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU187">
         <v>2.06</v>
@@ -37096,7 +37102,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37183,7 +37189,7 @@
         <v>2.1</v>
       </c>
       <c r="AS188">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT188">
         <v>2.18</v>
@@ -37568,7 +37574,7 @@
         <v>1.82</v>
       </c>
       <c r="AT190">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU190">
         <v>1.43</v>
@@ -38051,7 +38057,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38242,7 +38248,7 @@
         <v>184</v>
       </c>
       <c r="P194" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q194">
         <v>8</v>
@@ -39197,7 +39203,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -39284,10 +39290,10 @@
         <v>1.1</v>
       </c>
       <c r="AS199">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT199">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU199">
         <v>1.42</v>
@@ -39579,7 +39585,7 @@
         <v>84</v>
       </c>
       <c r="P201" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39721,6 +39727,961 @@
       </c>
       <c r="BK201">
         <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2407311</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>82</v>
+      </c>
+      <c r="H202" t="s">
+        <v>80</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>221</v>
+      </c>
+      <c r="P202" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q202">
+        <v>2</v>
+      </c>
+      <c r="R202">
+        <v>4</v>
+      </c>
+      <c r="S202">
+        <v>6</v>
+      </c>
+      <c r="T202">
+        <v>3.25</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>3.6</v>
+      </c>
+      <c r="W202">
+        <v>1.47</v>
+      </c>
+      <c r="X202">
+        <v>2.5</v>
+      </c>
+      <c r="Y202">
+        <v>3.15</v>
+      </c>
+      <c r="Z202">
+        <v>1.32</v>
+      </c>
+      <c r="AA202">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB202">
+        <v>1.04</v>
+      </c>
+      <c r="AC202">
+        <v>2.45</v>
+      </c>
+      <c r="AD202">
+        <v>2.9</v>
+      </c>
+      <c r="AE202">
+        <v>2.8</v>
+      </c>
+      <c r="AF202">
+        <v>1.08</v>
+      </c>
+      <c r="AG202">
+        <v>7</v>
+      </c>
+      <c r="AH202">
+        <v>1.38</v>
+      </c>
+      <c r="AI202">
+        <v>2.9</v>
+      </c>
+      <c r="AJ202">
+        <v>1.91</v>
+      </c>
+      <c r="AK202">
+        <v>1.75</v>
+      </c>
+      <c r="AL202">
+        <v>1.91</v>
+      </c>
+      <c r="AM202">
+        <v>1.8</v>
+      </c>
+      <c r="AN202">
+        <v>1.33</v>
+      </c>
+      <c r="AO202">
+        <v>1.28</v>
+      </c>
+      <c r="AP202">
+        <v>1.53</v>
+      </c>
+      <c r="AQ202">
+        <v>1.09</v>
+      </c>
+      <c r="AR202">
+        <v>1.36</v>
+      </c>
+      <c r="AS202">
+        <v>1.08</v>
+      </c>
+      <c r="AT202">
+        <v>1.33</v>
+      </c>
+      <c r="AU202">
+        <v>1.41</v>
+      </c>
+      <c r="AV202">
+        <v>1.36</v>
+      </c>
+      <c r="AW202">
+        <v>2.77</v>
+      </c>
+      <c r="AX202">
+        <v>1.91</v>
+      </c>
+      <c r="AY202">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202">
+        <v>2.23</v>
+      </c>
+      <c r="BA202">
+        <v>0</v>
+      </c>
+      <c r="BB202">
+        <v>1.47</v>
+      </c>
+      <c r="BC202">
+        <v>1.91</v>
+      </c>
+      <c r="BD202">
+        <v>2.03</v>
+      </c>
+      <c r="BE202">
+        <v>2.84</v>
+      </c>
+      <c r="BF202">
+        <v>3</v>
+      </c>
+      <c r="BG202">
+        <v>8</v>
+      </c>
+      <c r="BH202">
+        <v>2</v>
+      </c>
+      <c r="BI202">
+        <v>10</v>
+      </c>
+      <c r="BJ202">
+        <v>5</v>
+      </c>
+      <c r="BK202">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2407312</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44996.5625</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>68</v>
+      </c>
+      <c r="H203" t="s">
+        <v>78</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>222</v>
+      </c>
+      <c r="P203" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q203">
+        <v>11</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>11</v>
+      </c>
+      <c r="T203">
+        <v>2.1</v>
+      </c>
+      <c r="U203">
+        <v>2.25</v>
+      </c>
+      <c r="V203">
+        <v>6</v>
+      </c>
+      <c r="W203">
+        <v>1.38</v>
+      </c>
+      <c r="X203">
+        <v>2.8</v>
+      </c>
+      <c r="Y203">
+        <v>2.82</v>
+      </c>
+      <c r="Z203">
+        <v>1.37</v>
+      </c>
+      <c r="AA203">
+        <v>5.75</v>
+      </c>
+      <c r="AB203">
+        <v>1.1</v>
+      </c>
+      <c r="AC203">
+        <v>1.53</v>
+      </c>
+      <c r="AD203">
+        <v>3.8</v>
+      </c>
+      <c r="AE203">
+        <v>5.25</v>
+      </c>
+      <c r="AF203">
+        <v>1.01</v>
+      </c>
+      <c r="AG203">
+        <v>10</v>
+      </c>
+      <c r="AH203">
+        <v>1.25</v>
+      </c>
+      <c r="AI203">
+        <v>3.6</v>
+      </c>
+      <c r="AJ203">
+        <v>1.9</v>
+      </c>
+      <c r="AK203">
+        <v>1.9</v>
+      </c>
+      <c r="AL203">
+        <v>2</v>
+      </c>
+      <c r="AM203">
+        <v>1.73</v>
+      </c>
+      <c r="AN203">
+        <v>1.16</v>
+      </c>
+      <c r="AO203">
+        <v>1.24</v>
+      </c>
+      <c r="AP203">
+        <v>2.35</v>
+      </c>
+      <c r="AQ203">
+        <v>1.73</v>
+      </c>
+      <c r="AR203">
+        <v>1.09</v>
+      </c>
+      <c r="AS203">
+        <v>1.83</v>
+      </c>
+      <c r="AT203">
+        <v>1</v>
+      </c>
+      <c r="AU203">
+        <v>1.87</v>
+      </c>
+      <c r="AV203">
+        <v>1.47</v>
+      </c>
+      <c r="AW203">
+        <v>3.34</v>
+      </c>
+      <c r="AX203">
+        <v>1.26</v>
+      </c>
+      <c r="AY203">
+        <v>9.6</v>
+      </c>
+      <c r="AZ203">
+        <v>4.8</v>
+      </c>
+      <c r="BA203">
+        <v>0</v>
+      </c>
+      <c r="BB203">
+        <v>0</v>
+      </c>
+      <c r="BC203">
+        <v>1.59</v>
+      </c>
+      <c r="BD203">
+        <v>1.94</v>
+      </c>
+      <c r="BE203">
+        <v>2.42</v>
+      </c>
+      <c r="BF203">
+        <v>14</v>
+      </c>
+      <c r="BG203">
+        <v>2</v>
+      </c>
+      <c r="BH203">
+        <v>15</v>
+      </c>
+      <c r="BI203">
+        <v>7</v>
+      </c>
+      <c r="BJ203">
+        <v>29</v>
+      </c>
+      <c r="BK203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2407316</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44997.36111111111</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>69</v>
+      </c>
+      <c r="H204" t="s">
+        <v>72</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>223</v>
+      </c>
+      <c r="P204" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q204">
+        <v>7</v>
+      </c>
+      <c r="R204">
+        <v>8</v>
+      </c>
+      <c r="S204">
+        <v>15</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>2.2</v>
+      </c>
+      <c r="V204">
+        <v>4</v>
+      </c>
+      <c r="W204">
+        <v>1.38</v>
+      </c>
+      <c r="X204">
+        <v>2.8</v>
+      </c>
+      <c r="Y204">
+        <v>2.7</v>
+      </c>
+      <c r="Z204">
+        <v>1.4</v>
+      </c>
+      <c r="AA204">
+        <v>6</v>
+      </c>
+      <c r="AB204">
+        <v>1.09</v>
+      </c>
+      <c r="AC204">
+        <v>2</v>
+      </c>
+      <c r="AD204">
+        <v>3.4</v>
+      </c>
+      <c r="AE204">
+        <v>3.1</v>
+      </c>
+      <c r="AF204">
+        <v>1.06</v>
+      </c>
+      <c r="AG204">
+        <v>8</v>
+      </c>
+      <c r="AH204">
+        <v>1.29</v>
+      </c>
+      <c r="AI204">
+        <v>3.3</v>
+      </c>
+      <c r="AJ204">
+        <v>2</v>
+      </c>
+      <c r="AK204">
+        <v>1.8</v>
+      </c>
+      <c r="AL204">
+        <v>1.73</v>
+      </c>
+      <c r="AM204">
+        <v>2</v>
+      </c>
+      <c r="AN204">
+        <v>1.33</v>
+      </c>
+      <c r="AO204">
+        <v>1.3</v>
+      </c>
+      <c r="AP204">
+        <v>1.73</v>
+      </c>
+      <c r="AQ204">
+        <v>2.18</v>
+      </c>
+      <c r="AR204">
+        <v>0.91</v>
+      </c>
+      <c r="AS204">
+        <v>2.25</v>
+      </c>
+      <c r="AT204">
+        <v>0.83</v>
+      </c>
+      <c r="AU204">
+        <v>1.73</v>
+      </c>
+      <c r="AV204">
+        <v>1.76</v>
+      </c>
+      <c r="AW204">
+        <v>3.49</v>
+      </c>
+      <c r="AX204">
+        <v>1.63</v>
+      </c>
+      <c r="AY204">
+        <v>8</v>
+      </c>
+      <c r="AZ204">
+        <v>2.72</v>
+      </c>
+      <c r="BA204">
+        <v>1.18</v>
+      </c>
+      <c r="BB204">
+        <v>1.35</v>
+      </c>
+      <c r="BC204">
+        <v>1.67</v>
+      </c>
+      <c r="BD204">
+        <v>1.99</v>
+      </c>
+      <c r="BE204">
+        <v>2.47</v>
+      </c>
+      <c r="BF204">
+        <v>8</v>
+      </c>
+      <c r="BG204">
+        <v>4</v>
+      </c>
+      <c r="BH204">
+        <v>11</v>
+      </c>
+      <c r="BI204">
+        <v>5</v>
+      </c>
+      <c r="BJ204">
+        <v>19</v>
+      </c>
+      <c r="BK204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2407313</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>73</v>
+      </c>
+      <c r="H205" t="s">
+        <v>74</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>84</v>
+      </c>
+      <c r="P205" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q205">
+        <v>3</v>
+      </c>
+      <c r="R205">
+        <v>3</v>
+      </c>
+      <c r="S205">
+        <v>6</v>
+      </c>
+      <c r="T205">
+        <v>2.38</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>6</v>
+      </c>
+      <c r="W205">
+        <v>1.44</v>
+      </c>
+      <c r="X205">
+        <v>2.6</v>
+      </c>
+      <c r="Y205">
+        <v>3</v>
+      </c>
+      <c r="Z205">
+        <v>1.33</v>
+      </c>
+      <c r="AA205">
+        <v>7</v>
+      </c>
+      <c r="AB205">
+        <v>1.07</v>
+      </c>
+      <c r="AC205">
+        <v>1.65</v>
+      </c>
+      <c r="AD205">
+        <v>3.5</v>
+      </c>
+      <c r="AE205">
+        <v>4.75</v>
+      </c>
+      <c r="AF205">
+        <v>1.06</v>
+      </c>
+      <c r="AG205">
+        <v>7.5</v>
+      </c>
+      <c r="AH205">
+        <v>1.36</v>
+      </c>
+      <c r="AI205">
+        <v>2.9</v>
+      </c>
+      <c r="AJ205">
+        <v>2.25</v>
+      </c>
+      <c r="AK205">
+        <v>1.62</v>
+      </c>
+      <c r="AL205">
+        <v>2.2</v>
+      </c>
+      <c r="AM205">
+        <v>1.62</v>
+      </c>
+      <c r="AN205">
+        <v>1.2</v>
+      </c>
+      <c r="AO205">
+        <v>1.29</v>
+      </c>
+      <c r="AP205">
+        <v>2.05</v>
+      </c>
+      <c r="AQ205">
+        <v>1.55</v>
+      </c>
+      <c r="AR205">
+        <v>0.64</v>
+      </c>
+      <c r="AS205">
+        <v>1.42</v>
+      </c>
+      <c r="AT205">
+        <v>0.83</v>
+      </c>
+      <c r="AU205">
+        <v>1.81</v>
+      </c>
+      <c r="AV205">
+        <v>1.09</v>
+      </c>
+      <c r="AW205">
+        <v>2.9</v>
+      </c>
+      <c r="AX205">
+        <v>1.33</v>
+      </c>
+      <c r="AY205">
+        <v>8.9</v>
+      </c>
+      <c r="AZ205">
+        <v>4.15</v>
+      </c>
+      <c r="BA205">
+        <v>1.23</v>
+      </c>
+      <c r="BB205">
+        <v>1.36</v>
+      </c>
+      <c r="BC205">
+        <v>1.72</v>
+      </c>
+      <c r="BD205">
+        <v>2.13</v>
+      </c>
+      <c r="BE205">
+        <v>2.75</v>
+      </c>
+      <c r="BF205">
+        <v>0</v>
+      </c>
+      <c r="BG205">
+        <v>3</v>
+      </c>
+      <c r="BH205">
+        <v>3</v>
+      </c>
+      <c r="BI205">
+        <v>1</v>
+      </c>
+      <c r="BJ205">
+        <v>3</v>
+      </c>
+      <c r="BK205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2407310</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>75</v>
+      </c>
+      <c r="H206" t="s">
+        <v>81</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>224</v>
+      </c>
+      <c r="P206" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q206">
+        <v>5</v>
+      </c>
+      <c r="R206">
+        <v>8</v>
+      </c>
+      <c r="S206">
+        <v>13</v>
+      </c>
+      <c r="T206">
+        <v>3.2</v>
+      </c>
+      <c r="U206">
+        <v>2.1</v>
+      </c>
+      <c r="V206">
+        <v>3.5</v>
+      </c>
+      <c r="W206">
+        <v>1.38</v>
+      </c>
+      <c r="X206">
+        <v>2.8</v>
+      </c>
+      <c r="Y206">
+        <v>2.8</v>
+      </c>
+      <c r="Z206">
+        <v>1.38</v>
+      </c>
+      <c r="AA206">
+        <v>6</v>
+      </c>
+      <c r="AB206">
+        <v>1.09</v>
+      </c>
+      <c r="AC206">
+        <v>2.05</v>
+      </c>
+      <c r="AD206">
+        <v>3.5</v>
+      </c>
+      <c r="AE206">
+        <v>3.4</v>
+      </c>
+      <c r="AF206">
+        <v>1.02</v>
+      </c>
+      <c r="AG206">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH206">
+        <v>1.29</v>
+      </c>
+      <c r="AI206">
+        <v>3.3</v>
+      </c>
+      <c r="AJ206">
+        <v>1.85</v>
+      </c>
+      <c r="AK206">
+        <v>1.9</v>
+      </c>
+      <c r="AL206">
+        <v>1.83</v>
+      </c>
+      <c r="AM206">
+        <v>1.83</v>
+      </c>
+      <c r="AN206">
+        <v>1.38</v>
+      </c>
+      <c r="AO206">
+        <v>1.33</v>
+      </c>
+      <c r="AP206">
+        <v>1.62</v>
+      </c>
+      <c r="AQ206">
+        <v>0.91</v>
+      </c>
+      <c r="AR206">
+        <v>1.27</v>
+      </c>
+      <c r="AS206">
+        <v>1.08</v>
+      </c>
+      <c r="AT206">
+        <v>1.17</v>
+      </c>
+      <c r="AU206">
+        <v>1.24</v>
+      </c>
+      <c r="AV206">
+        <v>1.15</v>
+      </c>
+      <c r="AW206">
+        <v>2.39</v>
+      </c>
+      <c r="AX206">
+        <v>1.7</v>
+      </c>
+      <c r="AY206">
+        <v>7.8</v>
+      </c>
+      <c r="AZ206">
+        <v>2.57</v>
+      </c>
+      <c r="BA206">
+        <v>1.18</v>
+      </c>
+      <c r="BB206">
+        <v>1.34</v>
+      </c>
+      <c r="BC206">
+        <v>1.61</v>
+      </c>
+      <c r="BD206">
+        <v>1.98</v>
+      </c>
+      <c r="BE206">
+        <v>2.47</v>
+      </c>
+      <c r="BF206">
+        <v>4</v>
+      </c>
+      <c r="BG206">
+        <v>6</v>
+      </c>
+      <c r="BH206">
+        <v>6</v>
+      </c>
+      <c r="BI206">
+        <v>9</v>
+      </c>
+      <c r="BJ206">
+        <v>10</v>
+      </c>
+      <c r="BK206">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1332,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK206"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2812,7 +2812,7 @@
         <v>2.18</v>
       </c>
       <c r="AT8">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT14">
         <v>0.73</v>
@@ -6250,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU26">
         <v>1.93</v>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT29">
         <v>0.55</v>
@@ -10070,7 +10070,7 @@
         <v>2.18</v>
       </c>
       <c r="AT46">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU46">
         <v>2.37</v>
@@ -11980,7 +11980,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT61">
         <v>1.17</v>
@@ -16561,7 +16561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS80">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16946,7 +16946,7 @@
         <v>2.25</v>
       </c>
       <c r="AT82">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU82">
         <v>1.76</v>
@@ -19044,7 +19044,7 @@
         <v>2</v>
       </c>
       <c r="AS93">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT93">
         <v>1.58</v>
@@ -19811,7 +19811,7 @@
         <v>1.82</v>
       </c>
       <c r="AT97">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU97">
         <v>1.4</v>
@@ -22867,7 +22867,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU113">
         <v>1.59</v>
@@ -23246,7 +23246,7 @@
         <v>0.8</v>
       </c>
       <c r="AS115">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT115">
         <v>0.83</v>
@@ -26302,7 +26302,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT131">
         <v>0.36</v>
@@ -26878,7 +26878,7 @@
         <v>1.42</v>
       </c>
       <c r="AT134">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU134">
         <v>1.88</v>
@@ -29361,7 +29361,7 @@
         <v>1.83</v>
       </c>
       <c r="AT147">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU147">
         <v>1.71</v>
@@ -30313,7 +30313,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT152">
         <v>1.73</v>
@@ -31459,7 +31459,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT158">
         <v>1.55</v>
@@ -32608,7 +32608,7 @@
         <v>1.08</v>
       </c>
       <c r="AT164">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU164">
         <v>1.3</v>
@@ -34897,7 +34897,7 @@
         <v>1.22</v>
       </c>
       <c r="AS176">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT176">
         <v>1.55</v>
@@ -36046,7 +36046,7 @@
         <v>1.08</v>
       </c>
       <c r="AT182">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU182">
         <v>1.25</v>
@@ -37762,7 +37762,7 @@
         <v>1.1</v>
       </c>
       <c r="AS191">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT191">
         <v>1</v>
@@ -40682,6 +40682,197 @@
       </c>
       <c r="BK206">
         <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2407309</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44998.58333333334</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>76</v>
+      </c>
+      <c r="H207" t="s">
+        <v>79</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>84</v>
+      </c>
+      <c r="P207" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q207">
+        <v>8</v>
+      </c>
+      <c r="R207">
+        <v>3</v>
+      </c>
+      <c r="S207">
+        <v>11</v>
+      </c>
+      <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
+        <v>2.25</v>
+      </c>
+      <c r="V207">
+        <v>5</v>
+      </c>
+      <c r="W207">
+        <v>1.36</v>
+      </c>
+      <c r="X207">
+        <v>3</v>
+      </c>
+      <c r="Y207">
+        <v>2.67</v>
+      </c>
+      <c r="Z207">
+        <v>1.44</v>
+      </c>
+      <c r="AA207">
+        <v>6.2</v>
+      </c>
+      <c r="AB207">
+        <v>1.09</v>
+      </c>
+      <c r="AC207">
+        <v>1.85</v>
+      </c>
+      <c r="AD207">
+        <v>3.6</v>
+      </c>
+      <c r="AE207">
+        <v>4</v>
+      </c>
+      <c r="AF207">
+        <v>1.05</v>
+      </c>
+      <c r="AG207">
+        <v>9</v>
+      </c>
+      <c r="AH207">
+        <v>1.25</v>
+      </c>
+      <c r="AI207">
+        <v>3.75</v>
+      </c>
+      <c r="AJ207">
+        <v>1.85</v>
+      </c>
+      <c r="AK207">
+        <v>1.9</v>
+      </c>
+      <c r="AL207">
+        <v>1.83</v>
+      </c>
+      <c r="AM207">
+        <v>1.83</v>
+      </c>
+      <c r="AN207">
+        <v>1.11</v>
+      </c>
+      <c r="AO207">
+        <v>1.18</v>
+      </c>
+      <c r="AP207">
+        <v>2.3</v>
+      </c>
+      <c r="AQ207">
+        <v>1.18</v>
+      </c>
+      <c r="AR207">
+        <v>0.55</v>
+      </c>
+      <c r="AS207">
+        <v>1.08</v>
+      </c>
+      <c r="AT207">
+        <v>0.75</v>
+      </c>
+      <c r="AU207">
+        <v>1.91</v>
+      </c>
+      <c r="AV207">
+        <v>1.21</v>
+      </c>
+      <c r="AW207">
+        <v>3.12</v>
+      </c>
+      <c r="AX207">
+        <v>1.36</v>
+      </c>
+      <c r="AY207">
+        <v>8.9</v>
+      </c>
+      <c r="AZ207">
+        <v>3.88</v>
+      </c>
+      <c r="BA207">
+        <v>0</v>
+      </c>
+      <c r="BB207">
+        <v>1.27</v>
+      </c>
+      <c r="BC207">
+        <v>1.55</v>
+      </c>
+      <c r="BD207">
+        <v>1.88</v>
+      </c>
+      <c r="BE207">
+        <v>2.34</v>
+      </c>
+      <c r="BF207">
+        <v>4</v>
+      </c>
+      <c r="BG207">
+        <v>4</v>
+      </c>
+      <c r="BH207">
+        <v>5</v>
+      </c>
+      <c r="BI207">
+        <v>6</v>
+      </c>
+      <c r="BJ207">
+        <v>9</v>
+      </c>
+      <c r="BK207">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT8" t="n">
         <v>0.75</v>
@@ -2527,7 +2527,7 @@
         <v>1.42</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.08</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT13" t="n">
         <v>0.83</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.55</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT18" t="n">
         <v>1.73</v>
@@ -4354,7 +4354,7 @@
         <v>0.73</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>0.73</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.62</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT32" t="n">
         <v>0.73</v>
@@ -7399,7 +7399,7 @@
         <v>1.36</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.16</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT35" t="n">
         <v>1.73</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -10035,7 +10035,7 @@
         <v>0.8</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT47" t="n">
         <v>0.55</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT48" t="n">
         <v>0.73</v>
@@ -10444,7 +10444,7 @@
         <v>1.36</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.46</v>
@@ -10647,7 +10647,7 @@
         <v>0.73</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU50" t="n">
         <v>1.52</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
         <v>2.18</v>
@@ -11256,7 +11256,7 @@
         <v>1.36</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.45</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT54" t="n">
         <v>1.73</v>
@@ -11662,7 +11662,7 @@
         <v>2.18</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU55" t="n">
         <v>2.19</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT65" t="n">
         <v>0.73</v>
@@ -13895,7 +13895,7 @@
         <v>1.36</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.35</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>1.17</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>2.03</v>
@@ -14907,7 +14907,7 @@
         <v>2.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT71" t="n">
         <v>2.18</v>
@@ -15110,7 +15110,7 @@
         <v>0.83</v>
       </c>
       <c r="AS72" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT72" t="n">
         <v>0.55</v>
@@ -15316,7 +15316,7 @@
         <v>1.36</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU73" t="n">
         <v>1.42</v>
@@ -16128,7 +16128,7 @@
         <v>1.82</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU77" t="n">
         <v>1.2</v>
@@ -17749,7 +17749,7 @@
         <v>2.4</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT85" t="n">
         <v>2.18</v>
@@ -17955,7 +17955,7 @@
         <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU86" t="n">
         <v>1.94</v>
@@ -18155,7 +18155,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18561,7 +18561,7 @@
         <v>0.86</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT89" t="n">
         <v>0.55</v>
@@ -18767,7 +18767,7 @@
         <v>1.25</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.41</v>
@@ -18970,7 +18970,7 @@
         <v>1.36</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU91" t="n">
         <v>1.63</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT95" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>1.42</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU99" t="n">
         <v>1.69</v>
@@ -21203,7 +21203,7 @@
         <v>1.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU102" t="n">
         <v>1.39</v>
@@ -21403,7 +21403,7 @@
         <v>1.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT103" t="n">
         <v>1.33</v>
@@ -21609,7 +21609,7 @@
         <v>2</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU104" t="n">
         <v>1.9</v>
@@ -21809,7 +21809,7 @@
         <v>1.33</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22215,7 +22215,7 @@
         <v>2.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT107" t="n">
         <v>2.18</v>
@@ -22421,7 +22421,7 @@
         <v>1.82</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.45</v>
@@ -22827,7 +22827,7 @@
         <v>1.08</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU110" t="n">
         <v>0.97</v>
@@ -23230,7 +23230,7 @@
         <v>2.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT112" t="n">
         <v>1.58</v>
@@ -24654,7 +24654,7 @@
         <v>1.25</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU119" t="n">
         <v>1.33</v>
@@ -25057,7 +25057,7 @@
         <v>1.86</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT121" t="n">
         <v>1.33</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>0.83</v>
@@ -25466,7 +25466,7 @@
         <v>1.82</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU123" t="n">
         <v>1.4</v>
@@ -26887,7 +26887,7 @@
         <v>1.83</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU130" t="n">
         <v>1.81</v>
@@ -27090,7 +27090,7 @@
         <v>1.08</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU131" t="n">
         <v>2.09</v>
@@ -27899,7 +27899,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT135" t="n">
         <v>1.58</v>
@@ -28102,7 +28102,7 @@
         <v>0.83</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT136" t="n">
         <v>0.83</v>
@@ -28308,7 +28308,7 @@
         <v>1.82</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU137" t="n">
         <v>1.45</v>
@@ -28511,7 +28511,7 @@
         <v>1.42</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU138" t="n">
         <v>1.86</v>
@@ -29726,7 +29726,7 @@
         <v>2</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT144" t="n">
         <v>1.58</v>
@@ -29929,7 +29929,7 @@
         <v>0.88</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT145" t="n">
         <v>0.83</v>
@@ -30541,7 +30541,7 @@
         <v>1.08</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU148" t="n">
         <v>1.22</v>
@@ -31147,10 +31147,10 @@
         <v>0.43</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU151" t="n">
         <v>1.33</v>
@@ -31756,7 +31756,7 @@
         <v>0.86</v>
       </c>
       <c r="AS154" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT154" t="n">
         <v>0.83</v>
@@ -31962,7 +31962,7 @@
         <v>1.36</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU155" t="n">
         <v>1.51</v>
@@ -32162,7 +32162,7 @@
         <v>1.75</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT156" t="n">
         <v>1.82</v>
@@ -32571,7 +32571,7 @@
         <v>1.08</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU158" t="n">
         <v>1.8</v>
@@ -32771,7 +32771,7 @@
         <v>1.63</v>
       </c>
       <c r="AS159" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT159" t="n">
         <v>1.75</v>
@@ -32977,7 +32977,7 @@
         <v>1.08</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU160" t="n">
         <v>1.18</v>
@@ -33380,7 +33380,7 @@
         <v>1.5</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT162" t="n">
         <v>1.27</v>
@@ -33992,7 +33992,7 @@
         <v>1.83</v>
       </c>
       <c r="AT165" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU165" t="n">
         <v>1.86</v>
@@ -35816,7 +35816,7 @@
         <v>1.56</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT174" t="n">
         <v>1.75</v>
@@ -36019,7 +36019,7 @@
         <v>1.11</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT175" t="n">
         <v>0.83</v>
@@ -36225,7 +36225,7 @@
         <v>1.08</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU176" t="n">
         <v>1.83</v>
@@ -36628,10 +36628,10 @@
         <v>1.78</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU178" t="n">
         <v>1.38</v>
@@ -36831,7 +36831,7 @@
         <v>1.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT179" t="n">
         <v>1.82</v>
@@ -37037,7 +37037,7 @@
         <v>1.36</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU180" t="n">
         <v>1.76</v>
@@ -37240,7 +37240,7 @@
         <v>1.08</v>
       </c>
       <c r="AT181" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU181" t="n">
         <v>1.41</v>
@@ -39270,7 +39270,7 @@
         <v>1.08</v>
       </c>
       <c r="AT191" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU191" t="n">
         <v>1.91</v>
@@ -39470,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT192" t="n">
         <v>1.82</v>
@@ -39876,10 +39876,10 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU194" t="n">
         <v>1.44</v>
@@ -40282,7 +40282,7 @@
         <v>1.7</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT196" t="n">
         <v>1.75</v>
@@ -40488,7 +40488,7 @@
         <v>2</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU197" t="n">
         <v>1.83</v>
@@ -40688,10 +40688,10 @@
         <v>1.7</v>
       </c>
       <c r="AS198" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU198" t="n">
         <v>1.44</v>
@@ -42569,6 +42569,818 @@
         <v>9</v>
       </c>
       <c r="BK207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2407323</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45002.6875</v>
+      </c>
+      <c r="F208" t="n">
+        <v>24</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>SKRA Częstochowa</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Wisła Kraków</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>3</v>
+      </c>
+      <c r="N208" t="n">
+        <v>3</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['28', '53', '62']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3</v>
+      </c>
+      <c r="R208" t="n">
+        <v>3</v>
+      </c>
+      <c r="S208" t="n">
+        <v>6</v>
+      </c>
+      <c r="T208" t="n">
+        <v>9</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2407318</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>24</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Górnik Łęczna</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Chojniczanka Chojnice</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>7</v>
+      </c>
+      <c r="R209" t="n">
+        <v>4</v>
+      </c>
+      <c r="S209" t="n">
+        <v>11</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V209" t="n">
+        <v>4</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2407321</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45003.5625</v>
+      </c>
+      <c r="F210" t="n">
+        <v>24</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Podbeskidzie</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>1</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2407325</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45003.66666666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>24</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>GKS Katowice</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Resovia Rzeszów</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>11</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2</v>
+      </c>
+      <c r="S211" t="n">
+        <v>13</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V211" t="n">
+        <v>5</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK211" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT2" t="n">
         <v>1.17</v>
@@ -1106,7 +1106,7 @@
         <v>2.08</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT5" t="n">
         <v>0.75</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT7" t="n">
         <v>2.08</v>
@@ -2121,7 +2121,7 @@
         <v>2.08</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.92</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT10" t="n">
         <v>1.17</v>
@@ -2730,7 +2730,7 @@
         <v>0.92</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.67</v>
@@ -3136,7 +3136,7 @@
         <v>2.08</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU13" t="n">
         <v>1.02</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT19" t="n">
         <v>1.5</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.38</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT23" t="n">
         <v>2.08</v>
@@ -5369,7 +5369,7 @@
         <v>2.08</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU24" t="n">
         <v>2.61</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU25" t="n">
         <v>1.39</v>
@@ -5775,7 +5775,7 @@
         <v>1.92</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU26" t="n">
         <v>1.93</v>
@@ -5978,7 +5978,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU27" t="n">
         <v>1.27</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU28" t="n">
         <v>1.01</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT30" t="n">
         <v>1.67</v>
@@ -7805,7 +7805,7 @@
         <v>2.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -8008,7 +8008,7 @@
         <v>1.92</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU37" t="n">
         <v>1.97</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT38" t="n">
         <v>0.75</v>
@@ -8411,10 +8411,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU39" t="n">
         <v>1.53</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>2.08</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -9020,10 +9020,10 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU42" t="n">
         <v>1.91</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.99</v>
@@ -9429,7 +9429,7 @@
         <v>1.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU45" t="n">
         <v>0.97</v>
@@ -9835,7 +9835,7 @@
         <v>2.08</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU46" t="n">
         <v>2.37</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT50" t="n">
         <v>1.17</v>
@@ -11662,7 +11662,7 @@
         <v>2.08</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU55" t="n">
         <v>2.19</v>
@@ -11865,7 +11865,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU56" t="n">
         <v>1.43</v>
@@ -12065,10 +12065,10 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU57" t="n">
         <v>1.73</v>
@@ -12268,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU58" t="n">
         <v>1.38</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.51</v>
@@ -12674,10 +12674,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU60" t="n">
         <v>1.08</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU63" t="n">
         <v>1.01</v>
@@ -13486,10 +13486,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
@@ -15516,10 +15516,10 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.7</v>
@@ -15922,10 +15922,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU76" t="n">
         <v>0.83</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU77" t="n">
         <v>1.2</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.09</v>
@@ -16531,10 +16531,10 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU79" t="n">
         <v>1.35</v>
@@ -16737,7 +16737,7 @@
         <v>1.08</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU80" t="n">
         <v>1.79</v>
@@ -16937,10 +16937,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU81" t="n">
         <v>1.52</v>
@@ -17140,10 +17140,10 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU82" t="n">
         <v>1.76</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU87" t="n">
         <v>1.72</v>
@@ -18358,7 +18358,7 @@
         <v>1.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT88" t="n">
         <v>1.67</v>
@@ -19170,10 +19170,10 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU92" t="n">
         <v>0.83</v>
@@ -19376,7 +19376,7 @@
         <v>1.08</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU93" t="n">
         <v>1.85</v>
@@ -19576,10 +19576,10 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU94" t="n">
         <v>1.75</v>
@@ -19782,7 +19782,7 @@
         <v>1.17</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU95" t="n">
         <v>1.39</v>
@@ -19982,10 +19982,10 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU96" t="n">
         <v>1.08</v>
@@ -20185,10 +20185,10 @@
         <v>0.2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU97" t="n">
         <v>1.4</v>
@@ -20388,7 +20388,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT98" t="n">
         <v>1.75</v>
@@ -20591,10 +20591,10 @@
         <v>0.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU99" t="n">
         <v>1.69</v>
@@ -20794,10 +20794,10 @@
         <v>1.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.55</v>
@@ -20997,7 +20997,7 @@
         <v>0.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT101" t="n">
         <v>0.75</v>
@@ -21406,7 +21406,7 @@
         <v>0.92</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU103" t="n">
         <v>1.49</v>
@@ -21812,7 +21812,7 @@
         <v>1.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU105" t="n">
         <v>1.75</v>
@@ -22418,7 +22418,7 @@
         <v>2.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT108" t="n">
         <v>1.5</v>
@@ -22824,10 +22824,10 @@
         <v>0.6</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU110" t="n">
         <v>0.97</v>
@@ -23027,7 +23027,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT111" t="n">
         <v>1.75</v>
@@ -23233,7 +23233,7 @@
         <v>1.17</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU112" t="n">
         <v>1.47</v>
@@ -23433,10 +23433,10 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU113" t="n">
         <v>1.59</v>
@@ -23636,10 +23636,10 @@
         <v>2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU114" t="n">
         <v>1.19</v>
@@ -23842,7 +23842,7 @@
         <v>1.08</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU115" t="n">
         <v>1.99</v>
@@ -24045,7 +24045,7 @@
         <v>1.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU116" t="n">
         <v>1.39</v>
@@ -24245,10 +24245,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -24448,7 +24448,7 @@
         <v>1.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT118" t="n">
         <v>1.67</v>
@@ -24854,7 +24854,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT120" t="n">
         <v>0.75</v>
@@ -25060,7 +25060,7 @@
         <v>2.08</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU121" t="n">
         <v>1.14</v>
@@ -25263,7 +25263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.7</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT123" t="n">
         <v>1.67</v>
@@ -25666,7 +25666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT124" t="n">
         <v>0.75</v>
@@ -26075,7 +26075,7 @@
         <v>1.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU126" t="n">
         <v>1.75</v>
@@ -26478,10 +26478,10 @@
         <v>1.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU128" t="n">
         <v>1.54</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
         <v>1.67</v>
@@ -26884,7 +26884,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT130" t="n">
         <v>1.5</v>
@@ -27090,7 +27090,7 @@
         <v>1.08</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU131" t="n">
         <v>2.09</v>
@@ -27293,7 +27293,7 @@
         <v>1.25</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU132" t="n">
         <v>1.34</v>
@@ -27493,7 +27493,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT133" t="n">
         <v>1.75</v>
@@ -27696,10 +27696,10 @@
         <v>0.29</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU134" t="n">
         <v>1.88</v>
@@ -27902,7 +27902,7 @@
         <v>0.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU135" t="n">
         <v>1.36</v>
@@ -28105,7 +28105,7 @@
         <v>1.17</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU136" t="n">
         <v>1.44</v>
@@ -28305,7 +28305,7 @@
         <v>1.43</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT137" t="n">
         <v>1.17</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT138" t="n">
         <v>1.67</v>
@@ -28711,7 +28711,7 @@
         <v>0.6</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT139" t="n">
         <v>0.75</v>
@@ -28917,7 +28917,7 @@
         <v>2.08</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU140" t="n">
         <v>1.99</v>
@@ -29120,7 +29120,7 @@
         <v>1.92</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU141" t="n">
         <v>1.84</v>
@@ -29320,7 +29320,7 @@
         <v>2.25</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT142" t="n">
         <v>2.08</v>
@@ -29729,7 +29729,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU144" t="n">
         <v>1.74</v>
@@ -29932,7 +29932,7 @@
         <v>2.08</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.14</v>
@@ -30132,7 +30132,7 @@
         <v>0.88</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT146" t="n">
         <v>0.75</v>
@@ -30335,10 +30335,10 @@
         <v>0.38</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU147" t="n">
         <v>1.71</v>
@@ -30538,7 +30538,7 @@
         <v>2</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT148" t="n">
         <v>1.5</v>
@@ -30741,7 +30741,7 @@
         <v>1.57</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT149" t="n">
         <v>1.75</v>
@@ -30947,7 +30947,7 @@
         <v>1.25</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU150" t="n">
         <v>1.43</v>
@@ -31150,7 +31150,7 @@
         <v>1.17</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU151" t="n">
         <v>1.33</v>
@@ -31556,7 +31556,7 @@
         <v>1.33</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU153" t="n">
         <v>1.84</v>
@@ -31759,7 +31759,7 @@
         <v>0.92</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU154" t="n">
         <v>1.42</v>
@@ -31962,7 +31962,7 @@
         <v>1.25</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU155" t="n">
         <v>1.51</v>
@@ -32365,7 +32365,7 @@
         <v>1.25</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT157" t="n">
         <v>1.67</v>
@@ -32774,7 +32774,7 @@
         <v>0.92</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU159" t="n">
         <v>1.38</v>
@@ -32974,7 +32974,7 @@
         <v>1.25</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT160" t="n">
         <v>1.67</v>
@@ -33180,7 +33180,7 @@
         <v>1.33</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU161" t="n">
         <v>1.75</v>
@@ -33383,7 +33383,7 @@
         <v>1.5</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU162" t="n">
         <v>1.84</v>
@@ -33583,7 +33583,7 @@
         <v>0.78</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT163" t="n">
         <v>0.75</v>
@@ -33786,10 +33786,10 @@
         <v>0.67</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU164" t="n">
         <v>1.3</v>
@@ -33989,7 +33989,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT165" t="n">
         <v>1.17</v>
@@ -34195,7 +34195,7 @@
         <v>1.92</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU166" t="n">
         <v>1.89</v>
@@ -34398,7 +34398,7 @@
         <v>2.08</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU167" t="n">
         <v>1.99</v>
@@ -34598,7 +34598,7 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT168" t="n">
         <v>2.08</v>
@@ -34801,10 +34801,10 @@
         <v>1.22</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT169" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU169" t="n">
         <v>1.57</v>
@@ -35004,10 +35004,10 @@
         <v>1.56</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU170" t="n">
         <v>1.5</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT171" t="n">
         <v>1.17</v>
@@ -35413,7 +35413,7 @@
         <v>1.25</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.4</v>
@@ -35819,7 +35819,7 @@
         <v>2.08</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU174" t="n">
         <v>1.17</v>
@@ -36022,7 +36022,7 @@
         <v>1.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU175" t="n">
         <v>1.82</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT177" t="n">
         <v>1.17</v>
@@ -37037,7 +37037,7 @@
         <v>1.33</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU180" t="n">
         <v>1.76</v>
@@ -37237,7 +37237,7 @@
         <v>1.11</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT181" t="n">
         <v>1.17</v>
@@ -37440,10 +37440,10 @@
         <v>0.6</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU182" t="n">
         <v>1.25</v>
@@ -37643,7 +37643,7 @@
         <v>1.22</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT183" t="n">
         <v>1.17</v>
@@ -37846,10 +37846,10 @@
         <v>1.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT184" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU184" t="n">
         <v>1.52</v>
@@ -38049,10 +38049,10 @@
         <v>1.5</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU185" t="n">
         <v>1.86</v>
@@ -38252,10 +38252,10 @@
         <v>1.9</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU186" t="n">
         <v>1.66</v>
@@ -38458,7 +38458,7 @@
         <v>2.08</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU187" t="n">
         <v>2.06</v>
@@ -38658,7 +38658,7 @@
         <v>2.1</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT188" t="n">
         <v>2.08</v>
@@ -38864,7 +38864,7 @@
         <v>1.25</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU189" t="n">
         <v>1.4</v>
@@ -39064,10 +39064,10 @@
         <v>0.7</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU190" t="n">
         <v>1.43</v>
@@ -40285,7 +40285,7 @@
         <v>1.5</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU196" t="n">
         <v>1.75</v>
@@ -40488,7 +40488,7 @@
         <v>1.92</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU197" t="n">
         <v>1.83</v>
@@ -40891,7 +40891,7 @@
         <v>1.1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT199" t="n">
         <v>1.17</v>
@@ -41094,10 +41094,10 @@
         <v>1.73</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU200" t="n">
         <v>1.52</v>
@@ -41300,7 +41300,7 @@
         <v>1.25</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU201" t="n">
         <v>1.39</v>
@@ -41500,10 +41500,10 @@
         <v>1.36</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU202" t="n">
         <v>1.41</v>
@@ -41703,10 +41703,10 @@
         <v>1.09</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT203" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU203" t="n">
         <v>1.87</v>
@@ -41906,10 +41906,10 @@
         <v>0.91</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU204" t="n">
         <v>1.73</v>
@@ -42109,10 +42109,10 @@
         <v>0.64</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU205" t="n">
         <v>1.81</v>
@@ -42312,7 +42312,7 @@
         <v>1.27</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT206" t="n">
         <v>1.17</v>
@@ -42518,7 +42518,7 @@
         <v>1.08</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU207" t="n">
         <v>1.91</v>
@@ -42924,7 +42924,7 @@
         <v>1.5</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU209" t="n">
         <v>1.77</v>
@@ -43936,7 +43936,7 @@
         <v>2.18</v>
       </c>
       <c r="AS214" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT214" t="n">
         <v>2.08</v>
@@ -44397,6 +44397,1833 @@
       </c>
       <c r="BK216" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2407330</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45016.54166666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>25</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy Sącz</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>SKRA Częstochowa</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['80', '85']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>7</v>
+      </c>
+      <c r="R217" t="n">
+        <v>4</v>
+      </c>
+      <c r="S217" t="n">
+        <v>11</v>
+      </c>
+      <c r="T217" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V217" t="n">
+        <v>6</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2407334</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45016.64583333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Nieciecza</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['11', '60']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="n">
+        <v>3</v>
+      </c>
+      <c r="S218" t="n">
+        <v>3</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2407327</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Odra Opole</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Górnik Łęczna</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>4</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2</v>
+      </c>
+      <c r="S219" t="n">
+        <v>6</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2407331</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45017.52083333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Wisła Kraków</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Chrobry Głogów</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>3</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>4</v>
+      </c>
+      <c r="L220" t="n">
+        <v>4</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>5</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['16', '22', '45', '77']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>6</v>
+      </c>
+      <c r="R220" t="n">
+        <v>6</v>
+      </c>
+      <c r="S220" t="n">
+        <v>12</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V220" t="n">
+        <v>8</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2407328</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45017.625</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Arka Gdynia</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>GKS Katowice</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>3</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['12', '45+2']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['16', '78']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2</v>
+      </c>
+      <c r="R221" t="n">
+        <v>10</v>
+      </c>
+      <c r="S221" t="n">
+        <v>12</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2407335</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45018.31944444445</v>
+      </c>
+      <c r="F222" t="n">
+        <v>25</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Chojniczanka Chojnice</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['28', '77']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>3</v>
+      </c>
+      <c r="R222" t="n">
+        <v>6</v>
+      </c>
+      <c r="S222" t="n">
+        <v>9</v>
+      </c>
+      <c r="T222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X222" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2407332</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>25</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Zagłębie Sosnowiec</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3</v>
+      </c>
+      <c r="R223" t="n">
+        <v>5</v>
+      </c>
+      <c r="S223" t="n">
+        <v>8</v>
+      </c>
+      <c r="T223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2407333</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45018.54166666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>25</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Podbeskidzie</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Stal Rzeszów</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>2</v>
+      </c>
+      <c r="N224" t="n">
+        <v>4</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['59', '69']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['33', '67']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>8</v>
+      </c>
+      <c r="R224" t="n">
+        <v>6</v>
+      </c>
+      <c r="S224" t="n">
+        <v>14</v>
+      </c>
+      <c r="T224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V224" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2407329</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45019.54166666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>25</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Resovia Rzeszów</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Tychy 71</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>5</v>
+      </c>
+      <c r="R225" t="n">
+        <v>7</v>
+      </c>
+      <c r="S225" t="n">
+        <v>12</v>
+      </c>
+      <c r="T225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT4" t="n">
         <v>1.15</v>
@@ -1512,7 +1512,7 @@
         <v>1.92</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.46</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT8" t="n">
         <v>0.92</v>
@@ -2527,7 +2527,7 @@
         <v>1.38</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT11" t="n">
         <v>0.38</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT13" t="n">
         <v>0.85</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT15" t="n">
         <v>1.62</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT16" t="n">
         <v>1.75</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.17</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU20" t="n">
         <v>1.6</v>
@@ -5166,7 +5166,7 @@
         <v>1.92</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU23" t="n">
         <v>0.77</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.25</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT27" t="n">
         <v>1.46</v>
@@ -6384,7 +6384,7 @@
         <v>1.08</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU29" t="n">
         <v>2.04</v>
@@ -6587,7 +6587,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU30" t="n">
         <v>1.62</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT33" t="n">
         <v>1.75</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU34" t="n">
         <v>1.16</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU35" t="n">
         <v>1.86</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT36" t="n">
         <v>0.38</v>
@@ -8211,7 +8211,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU38" t="n">
         <v>1.59</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT44" t="n">
         <v>0.85</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.92</v>
@@ -10038,7 +10038,7 @@
         <v>1.17</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU47" t="n">
         <v>1.76</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT48" t="n">
         <v>0.75</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU49" t="n">
         <v>1.46</v>
@@ -10647,7 +10647,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU50" t="n">
         <v>1.52</v>
@@ -11053,7 +11053,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.62</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU53" t="n">
         <v>1.45</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU54" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.38</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT56" t="n">
         <v>0.92</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT65" t="n">
         <v>0.75</v>
@@ -13892,10 +13892,10 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU66" t="n">
         <v>1.35</v>
@@ -14301,7 +14301,7 @@
         <v>1.92</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU68" t="n">
         <v>2.03</v>
@@ -14501,10 +14501,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU69" t="n">
         <v>2.16</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT70" t="n">
         <v>1.75</v>
@@ -14910,7 +14910,7 @@
         <v>1.17</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU71" t="n">
         <v>1.53</v>
@@ -15110,10 +15110,10 @@
         <v>0.83</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU72" t="n">
         <v>1.71</v>
@@ -15313,10 +15313,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU73" t="n">
         <v>1.42</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT83" t="n">
         <v>1.17</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
         <v>0.75</v>
@@ -17749,10 +17749,10 @@
         <v>2.4</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.54</v>
@@ -17955,7 +17955,7 @@
         <v>1.92</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU86" t="n">
         <v>1.94</v>
@@ -18361,7 +18361,7 @@
         <v>2.31</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU88" t="n">
         <v>1.66</v>
@@ -18561,10 +18561,10 @@
         <v>0.86</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU89" t="n">
         <v>1</v>
@@ -18764,10 +18764,10 @@
         <v>2.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU90" t="n">
         <v>1.41</v>
@@ -18967,10 +18967,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU91" t="n">
         <v>1.63</v>
@@ -21200,10 +21200,10 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU102" t="n">
         <v>1.39</v>
@@ -21403,7 +21403,7 @@
         <v>1.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT103" t="n">
         <v>1.31</v>
@@ -21609,7 +21609,7 @@
         <v>1.92</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU104" t="n">
         <v>1.9</v>
@@ -22012,10 +22012,10 @@
         <v>0.75</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU106" t="n">
         <v>2</v>
@@ -22215,10 +22215,10 @@
         <v>2.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU107" t="n">
         <v>1.16</v>
@@ -22421,7 +22421,7 @@
         <v>1.92</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU108" t="n">
         <v>1.45</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT109" t="n">
         <v>1.17</v>
@@ -24042,7 +24042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24451,7 +24451,7 @@
         <v>1.38</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU118" t="n">
         <v>1.91</v>
@@ -24651,10 +24651,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU119" t="n">
         <v>1.33</v>
@@ -24857,7 +24857,7 @@
         <v>2.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU120" t="n">
         <v>1.6</v>
@@ -25057,7 +25057,7 @@
         <v>1.86</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT121" t="n">
         <v>1.31</v>
@@ -25466,7 +25466,7 @@
         <v>1.92</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU123" t="n">
         <v>1.4</v>
@@ -25869,10 +25869,10 @@
         <v>2.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU125" t="n">
         <v>2.01</v>
@@ -26072,7 +26072,7 @@
         <v>1.14</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT126" t="n">
         <v>1.15</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU129" t="n">
         <v>1.06</v>
@@ -26887,7 +26887,7 @@
         <v>1.92</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU130" t="n">
         <v>1.81</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT132" t="n">
         <v>1.25</v>
@@ -27899,7 +27899,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT135" t="n">
         <v>1.46</v>
@@ -28308,7 +28308,7 @@
         <v>1.92</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU137" t="n">
         <v>1.45</v>
@@ -28511,7 +28511,7 @@
         <v>1.38</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU138" t="n">
         <v>1.86</v>
@@ -28714,7 +28714,7 @@
         <v>1.46</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU139" t="n">
         <v>1.53</v>
@@ -28914,7 +28914,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT140" t="n">
         <v>1.31</v>
@@ -29323,7 +29323,7 @@
         <v>2.31</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU142" t="n">
         <v>1.56</v>
@@ -29523,7 +29523,7 @@
         <v>0.67</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT143" t="n">
         <v>1.17</v>
@@ -29929,7 +29929,7 @@
         <v>0.88</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU148" t="n">
         <v>1.22</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT150" t="n">
         <v>1.62</v>
@@ -31353,7 +31353,7 @@
         <v>1.08</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU152" t="n">
         <v>1.94</v>
@@ -31553,7 +31553,7 @@
         <v>1.71</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT153" t="n">
         <v>1.25</v>
@@ -31756,7 +31756,7 @@
         <v>0.86</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT154" t="n">
         <v>0.85</v>
@@ -31959,7 +31959,7 @@
         <v>0.38</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT155" t="n">
         <v>0.38</v>
@@ -32368,7 +32368,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU157" t="n">
         <v>1.44</v>
@@ -32571,7 +32571,7 @@
         <v>1.08</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU158" t="n">
         <v>1.8</v>
@@ -32771,7 +32771,7 @@
         <v>1.63</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT159" t="n">
         <v>1.62</v>
@@ -32977,7 +32977,7 @@
         <v>1</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU160" t="n">
         <v>1.18</v>
@@ -33177,7 +33177,7 @@
         <v>1.13</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT161" t="n">
         <v>0.85</v>
@@ -33992,7 +33992,7 @@
         <v>1.92</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU165" t="n">
         <v>1.86</v>
@@ -34395,7 +34395,7 @@
         <v>2.11</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT167" t="n">
         <v>1.46</v>
@@ -34601,7 +34601,7 @@
         <v>1.38</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU168" t="n">
         <v>1.86</v>
@@ -35410,7 +35410,7 @@
         <v>0.78</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT172" t="n">
         <v>1</v>
@@ -35613,10 +35613,10 @@
         <v>1.44</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -35816,7 +35816,7 @@
         <v>1.56</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT174" t="n">
         <v>1.62</v>
@@ -36225,7 +36225,7 @@
         <v>1.08</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU176" t="n">
         <v>1.83</v>
@@ -36631,7 +36631,7 @@
         <v>1.17</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU178" t="n">
         <v>1.38</v>
@@ -36831,7 +36831,7 @@
         <v>1.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT179" t="n">
         <v>1.75</v>
@@ -37034,7 +37034,7 @@
         <v>0.44</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT180" t="n">
         <v>0.38</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU181" t="n">
         <v>1.41</v>
@@ -38455,7 +38455,7 @@
         <v>1</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT187" t="n">
         <v>0.85</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU188" t="n">
         <v>1.41</v>
@@ -38861,7 +38861,7 @@
         <v>1.3</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT189" t="n">
         <v>1.25</v>
@@ -39270,7 +39270,7 @@
         <v>1.08</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU191" t="n">
         <v>1.91</v>
@@ -39470,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT192" t="n">
         <v>1.75</v>
@@ -39673,10 +39673,10 @@
         <v>1.6</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU193" t="n">
         <v>1.77</v>
@@ -39879,7 +39879,7 @@
         <v>1.17</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU194" t="n">
         <v>1.44</v>
@@ -40079,7 +40079,7 @@
         <v>0.8</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT195" t="n">
         <v>0.75</v>
@@ -40688,10 +40688,10 @@
         <v>1.7</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU198" t="n">
         <v>1.44</v>
@@ -41297,7 +41297,7 @@
         <v>1.64</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT201" t="n">
         <v>1.62</v>
@@ -42718,10 +42718,10 @@
         <v>1.55</v>
       </c>
       <c r="AS208" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU208" t="n">
         <v>1.41</v>
@@ -43124,10 +43124,10 @@
         <v>1.55</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU210" t="n">
         <v>1.22</v>
@@ -43330,7 +43330,7 @@
         <v>1.17</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU211" t="n">
         <v>1.43</v>
@@ -43530,7 +43530,7 @@
         <v>1.82</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT212" t="n">
         <v>1.75</v>
@@ -43733,10 +43733,10 @@
         <v>0.55</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU213" t="n">
         <v>1.52</v>
@@ -43939,7 +43939,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU214" t="n">
         <v>1.42</v>
@@ -44142,7 +44142,7 @@
         <v>1.92</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU215" t="n">
         <v>1.76</v>
@@ -44342,7 +44342,7 @@
         <v>0.73</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT216" t="n">
         <v>0.75</v>
@@ -46224,6 +46224,1224 @@
       </c>
       <c r="BK225" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2407341</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45022.54166666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>26</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Chrobry Głogów</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy Sącz</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>2</v>
+      </c>
+      <c r="R226" t="n">
+        <v>5</v>
+      </c>
+      <c r="S226" t="n">
+        <v>7</v>
+      </c>
+      <c r="T226" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2407337</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45022.54166666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Chojniczanka Chojnice</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Nieciecza</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>8</v>
+      </c>
+      <c r="R227" t="n">
+        <v>6</v>
+      </c>
+      <c r="S227" t="n">
+        <v>14</v>
+      </c>
+      <c r="T227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2407338</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45022.64583333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Podbeskidzie</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>4</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['30', '90+5']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['71', '88']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>8</v>
+      </c>
+      <c r="S228" t="n">
+        <v>12</v>
+      </c>
+      <c r="T228" t="n">
+        <v>3</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2407342</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45024.31944444445</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>SKRA Częstochowa</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Resovia Rzeszów</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>5</v>
+      </c>
+      <c r="N229" t="n">
+        <v>5</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['1', '14', '63', '65', '73']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>2</v>
+      </c>
+      <c r="R229" t="n">
+        <v>5</v>
+      </c>
+      <c r="S229" t="n">
+        <v>7</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2407343</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Tychy 71</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Arka Gdynia</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2</v>
+      </c>
+      <c r="N230" t="n">
+        <v>4</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['60', '90+8']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['14', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>6</v>
+      </c>
+      <c r="R230" t="n">
+        <v>4</v>
+      </c>
+      <c r="S230" t="n">
+        <v>10</v>
+      </c>
+      <c r="T230" t="n">
+        <v>4</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2407340</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45024.52083333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>26</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Wisła Kraków</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['24', '45+10']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3</v>
+      </c>
+      <c r="R231" t="n">
+        <v>16</v>
+      </c>
+      <c r="S231" t="n">
+        <v>19</v>
+      </c>
+      <c r="T231" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland 1. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>1.46</v>
@@ -3339,7 +3339,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21" t="n">
         <v>2.06</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>0.92</v>
@@ -6993,7 +6993,7 @@
         <v>1.17</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU32" t="n">
         <v>1.9</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.62</v>
@@ -10241,7 +10241,7 @@
         <v>0.85</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU48" t="n">
         <v>1.6</v>
@@ -10847,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>1.75</v>
@@ -13692,7 +13692,7 @@
         <v>2.15</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU65" t="n">
         <v>1.05</v>
@@ -14298,7 +14298,7 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT68" t="n">
         <v>1.46</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU84" t="n">
         <v>2.13</v>
@@ -17952,7 +17952,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT86" t="n">
         <v>1.54</v>
@@ -21000,7 +21000,7 @@
         <v>2.31</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT104" t="n">
         <v>1.31</v>
@@ -25669,7 +25669,7 @@
         <v>1.46</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU124" t="n">
         <v>1.55</v>
@@ -26275,7 +26275,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT127" t="n">
         <v>1.17</v>
@@ -29117,7 +29117,7 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>1.15</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU146" t="n">
         <v>1.12</v>
@@ -33586,7 +33586,7 @@
         <v>1</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU163" t="n">
         <v>1.25</v>
@@ -34192,7 +34192,7 @@
         <v>1.44</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT166" t="n">
         <v>1.25</v>
@@ -40082,7 +40082,7 @@
         <v>1.23</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU195" t="n">
         <v>1.51</v>
@@ -40485,7 +40485,7 @@
         <v>0.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT197" t="n">
         <v>0.38</v>
@@ -44139,7 +44139,7 @@
         <v>1.73</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT215" t="n">
         <v>1.62</v>
@@ -44345,7 +44345,7 @@
         <v>1.31</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU216" t="n">
         <v>1.77</v>
@@ -47442,6 +47442,209 @@
       </c>
       <c r="BK231" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2407339</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Poland 1. Liga</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45024.625</v>
+      </c>
+      <c r="F232" t="n">
+        <v>26</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Stal Rzeszów</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Zagłębie Sosnowiec</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>2</v>
+      </c>
+      <c r="L232" t="n">
+        <v>6</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>6</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['23', '45+4', '61', '71', '82', '90']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>6</v>
+      </c>
+      <c r="R232" t="n">
+        <v>4</v>
+      </c>
+      <c r="S232" t="n">
+        <v>10</v>
+      </c>
+      <c r="T232" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
